--- a/simulation/results/test.xlsx
+++ b/simulation/results/test.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +49,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +129,71 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,7 +480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -421,57 +493,86 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="70" customWidth="1" min="9" max="9"/>
+    <col width="80" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Season</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Capacitance</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Samples</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Sleep</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Start</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>$BAR_NAME$</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>$TIME_NAME$</t>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Resulting metrics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Time plot</t>
         </is>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2" ht="240" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>winter</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>476</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/simulation/results/test.xlsx
+++ b/simulation/results/test.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Simulation results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="twoCell">
     <from>
       <col>8</col>
@@ -152,13 +152,16 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -182,13 +185,208 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId6"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="twoCell">
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -480,12 +678,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -512,7 +710,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Capacitance</t>
+          <t>Capacitance [mF]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -568,11 +766,86 @@
         <v>2.7</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="3" ht="240" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>winter</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>476</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="4" ht="240" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>476</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="5" ht="240" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>winter</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>476</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>